--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -50,7 +50,10 @@
     <t>30000/500</t>
   </si>
   <si>
-    <t>CPU(1)</t>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>GPU</t>
   </si>
   <si>
     <t>CPU(2)</t>
@@ -63,9 +66,6 @@
   </si>
   <si>
     <t>CPU(5)</t>
-  </si>
-  <si>
-    <t>GPU(1)</t>
   </si>
   <si>
     <t>GPU(2)</t>
@@ -157,6 +157,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>50 Iterations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -189,7 +214,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1914260717410323E-2"/>
+          <c:y val="0.15782407407407409"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -203,7 +238,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CPU(1)</c:v>
+                  <c:v>CPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -220,9 +255,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100/50</c:v>
                 </c:pt>
@@ -237,25 +272,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30000/50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000/500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000/500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30000/500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.09E-3</c:v>
                 </c:pt>
@@ -270,15 +296,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>117.89205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7857400000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>138.95653999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1204.62012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -293,7 +310,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GPU(1)</c:v>
+                  <c:v>GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -310,9 +327,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100/50</c:v>
                 </c:pt>
@@ -327,25 +344,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30000/50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000/500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000/500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30000/500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.9220000000000001E-2</c:v>
                 </c:pt>
@@ -360,15 +368,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.0787699999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.24898999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.4573499999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56.079439999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -379,11 +378,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CPU Percentage</c:v>
+                  <c:v>Gain</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -400,9 +399,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100/50</c:v>
                 </c:pt>
@@ -417,205 +416,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30000/50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000/500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000/500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30000/500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.3668143771541112</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60.94882950072509</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>81.540988289060266</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>94.889167090940816</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95.096612251173298</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87.762995581723374</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>95.55933068017093</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>95.551720506668531</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GPU percentage</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>100/50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500/50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000/50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000/50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30000/50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000/500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000/500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30000/500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>94.633185622845886</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39.05117049927491</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.459011710939734</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.1108329090591837</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9033877488267024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.237004418276626</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.4406693198290697</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4482794933314693</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Gain</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>100/50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500/50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000/50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000/50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30000/50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000/500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000/500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30000/500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$9</c:f>
+              <c:f>Sheet1!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.6711758584807486</c:v>
                 </c:pt>
@@ -630,15 +440,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1939.406327266865</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>717.19346158480266</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2151.9127815589986</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2148.0601803441691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -654,11 +455,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="517818656"/>
-        <c:axId val="517819048"/>
+        <c:axId val="522600384"/>
+        <c:axId val="522601168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="517818656"/>
+        <c:axId val="522600384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517819048"/>
+        <c:crossAx val="522601168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -709,7 +510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="517819048"/>
+        <c:axId val="522601168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,7 +561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517818656"/>
+        <c:crossAx val="522600384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1388,20 +1189,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1685,7 +1486,7 @@
   <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1501,7 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -1754,7 +1555,7 @@
         <v>39.05117049927491</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="2">(B3/C3) * 100</f>
+        <f>(B3/C3) * 100</f>
         <v>156.07427055702919</v>
       </c>
     </row>
@@ -1777,7 +1578,7 @@
         <v>18.459011710939734</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
+        <f>(B4/C4) * 100</f>
         <v>441.74081237911025</v>
       </c>
     </row>
@@ -1800,20 +1601,20 @@
         <v>5.1108329090591837</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f>(B5/C5) * 100</f>
         <v>1856.6282400417663</v>
       </c>
       <c r="U5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="s">
         <v>14</v>
@@ -1847,7 +1648,7 @@
         <v>4.9033877488267024</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f>(B6/C6) * 100</f>
         <v>1939.406327266865</v>
       </c>
       <c r="U6">
@@ -1894,7 +1695,7 @@
         <v>12.237004418276626</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f>(B7/C7) * 100</f>
         <v>717.19346158480266</v>
       </c>
       <c r="U7">
@@ -1941,7 +1742,7 @@
         <v>4.4406693198290697</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f>(B8/C8) * 100</f>
         <v>2151.9127815589986</v>
       </c>
       <c r="U8">
@@ -1988,7 +1789,7 @@
         <v>4.4482794933314693</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f>(B9/C9) * 100</f>
         <v>2148.0601803441691</v>
       </c>
       <c r="U9">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yong.q\Desktop\cs398\cs398\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Desktop\cs398\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F735060F-D670-4400-BC3A-781B33784B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>100/50</t>
   </si>
@@ -92,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +152,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -182,7 +191,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -300,6 +308,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13F8-476F-B4D2-E2A880A22447}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -372,6 +385,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-13F8-476F-B4D2-E2A880A22447}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -444,6 +462,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-13F8-476F-B4D2-E2A880A22447}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -575,7 +598,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1189,20 +1211,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1482,11 +1510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="F13" sqref="F13:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1560,7 @@
         <v>94.633185622845886</v>
       </c>
       <c r="F2">
-        <f>(B2/C2) * 100</f>
+        <f t="shared" ref="F2:F9" si="0">(B2/C2) * 100</f>
         <v>5.6711758584807486</v>
       </c>
     </row>
@@ -1547,15 +1575,15 @@
         <v>1.8849999999999999E-2</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D9" si="0">B3/(B3+C3) * 100</f>
+        <f t="shared" ref="D3:D9" si="1">B3/(B3+C3) * 100</f>
         <v>60.94882950072509</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E9" si="1">100-D3</f>
+        <f t="shared" ref="E3:E9" si="2">100-D3</f>
         <v>39.05117049927491</v>
       </c>
       <c r="F3">
-        <f>(B3/C3) * 100</f>
+        <f t="shared" si="0"/>
         <v>156.07427055702919</v>
       </c>
     </row>
@@ -1570,15 +1598,15 @@
         <v>2.5850000000000001E-2</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>81.540988289060266</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="2"/>
+        <v>18.459011710939734</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>81.540988289060266</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>18.459011710939734</v>
-      </c>
-      <c r="F4">
-        <f>(B4/C4) * 100</f>
         <v>441.74081237911025</v>
       </c>
     </row>
@@ -1593,15 +1621,15 @@
         <v>0.70870999999999995</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>94.889167090940816</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1108329090591837</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>94.889167090940816</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.1108329090591837</v>
-      </c>
-      <c r="F5">
-        <f>(B5/C5) * 100</f>
         <v>1856.6282400417663</v>
       </c>
       <c r="U5" t="s">
@@ -1640,15 +1668,15 @@
         <v>6.0787699999999996</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>95.096612251173298</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9033877488267024</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>95.096612251173298</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>4.9033877488267024</v>
-      </c>
-      <c r="F6">
-        <f>(B6/C6) * 100</f>
         <v>1939.406327266865</v>
       </c>
       <c r="U6">
@@ -1687,15 +1715,15 @@
         <v>0.24898999999999999</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>87.762995581723374</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>12.237004418276626</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>87.762995581723374</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>12.237004418276626</v>
-      </c>
-      <c r="F7">
-        <f>(B7/C7) * 100</f>
         <v>717.19346158480266</v>
       </c>
       <c r="U7">
@@ -1734,15 +1762,15 @@
         <v>6.4573499999999999</v>
       </c>
       <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>95.55933068017093</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4406693198290697</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>95.55933068017093</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>4.4406693198290697</v>
-      </c>
-      <c r="F8">
-        <f>(B8/C8) * 100</f>
         <v>2151.9127815589986</v>
       </c>
       <c r="U8">
@@ -1781,15 +1809,15 @@
         <v>56.079439999999998</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>95.551720506668531</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4482794933314693</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>95.551720506668531</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>4.4482794933314693</v>
-      </c>
-      <c r="F9">
-        <f>(B9/C9) * 100</f>
         <v>2148.0601803441691</v>
       </c>
       <c r="U9">
@@ -1834,6 +1862,21 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
       <c r="U12">
         <v>138.98479</v>
       </c>
@@ -1842,15 +1885,83 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>1.7857400000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.24898999999999999</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:D15" si="3">B13/(B13+C13) * 100</f>
+        <v>87.762995581723374</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13:E15" si="4">100-D13</f>
+        <v>12.237004418276626</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F15" si="5">(B13/C13) * 100</f>
+        <v>717.19346158480266</v>
+      </c>
       <c r="U13">
         <v>1219.04492</v>
       </c>
       <c r="Z13">
         <v>56.250030000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>138.95653999999999</v>
+      </c>
+      <c r="C14">
+        <v>6.4573499999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="3"/>
+        <v>95.55933068017093</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="4"/>
+        <v>4.4406693198290697</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>2151.9127815589986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1204.62012</v>
+      </c>
+      <c r="C15">
+        <v>56.079439999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="3"/>
+        <v>95.551720506668531</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="4"/>
+        <v>4.4482794933314693</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>2148.0601803441691</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Desktop\cs398\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yong.q\Desktop\cs398\cs398\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F735060F-D670-4400-BC3A-781B33784B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>100/50</t>
   </si>
@@ -97,11 +96,26 @@
   <si>
     <t>CPU Percentage</t>
   </si>
+  <si>
+    <t>BlkSize2</t>
+  </si>
+  <si>
+    <t>BlkSize4</t>
+  </si>
+  <si>
+    <t>BlkSize8</t>
+  </si>
+  <si>
+    <t>BlkSize16</t>
+  </si>
+  <si>
+    <t>BlkSize32</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,9 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,7 +169,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -191,6 +208,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -308,7 +326,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-13F8-476F-B4D2-E2A880A22447}"/>
             </c:ext>
@@ -385,7 +403,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-13F8-476F-B4D2-E2A880A22447}"/>
             </c:ext>
@@ -462,7 +480,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-13F8-476F-B4D2-E2A880A22447}"/>
             </c:ext>
@@ -478,11 +496,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="522600384"/>
-        <c:axId val="522601168"/>
+        <c:axId val="420160192"/>
+        <c:axId val="420164112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="522600384"/>
+        <c:axId val="420160192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,7 +543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522601168"/>
+        <c:crossAx val="420164112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -533,7 +551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="522601168"/>
+        <c:axId val="420164112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,7 +602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522600384"/>
+        <c:crossAx val="420160192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -598,6 +616,1043 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>500 Iterations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000/500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$12:$C$12,Sheet1!$F$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$B$13:$C$13,Sheet1!$F$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7857400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24898999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>717.19346158480266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000/500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$12:$C$12,Sheet1!$F$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$B$14:$C$14,Sheet1!$F$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>138.95653999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4573499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2151.9127815589986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30000/500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$12:$C$12,Sheet1!$F$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$B$15:$C$15,Sheet1!$F$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1204.62012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.079439999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2148.0601803441691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="470550304"/>
+        <c:axId val="470548736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="470550304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470548736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="470548736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470550304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Block</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Size Comparisons</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$35:$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BlkSize2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BlkSize4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlkSize8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BlkSize16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.8360000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.823E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8190000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$35:$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BlkSize2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BlkSize4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlkSize8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BlkSize16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7240000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2069999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8679999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.882E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$35:$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BlkSize2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BlkSize4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlkSize8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BlkSize16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.3869999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7029999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5139999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$35:$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BlkSize2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BlkSize4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlkSize8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BlkSize16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.0198600000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6216200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80115000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="561058792"/>
+        <c:axId val="561055656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="561058792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561055656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="561055656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561058792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -704,7 +1759,1093 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1227,7 +3368,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,6 +3381,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1510,15 +3711,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
@@ -1959,6 +4161,106 @@
         <v>2148.0601803441691</v>
       </c>
     </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>1.8360000000000001E-2</v>
+      </c>
+      <c r="C36">
+        <v>1.8249999999999999E-2</v>
+      </c>
+      <c r="D36">
+        <v>1.823E-2</v>
+      </c>
+      <c r="E36">
+        <v>1.8190000000000001E-2</v>
+      </c>
+      <c r="F36">
+        <v>1.9220000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>500</v>
+      </c>
+      <c r="B37">
+        <v>3.7240000000000002E-2</v>
+      </c>
+      <c r="C37">
+        <v>2.2069999999999999E-2</v>
+      </c>
+      <c r="D37">
+        <v>1.8679999999999999E-2</v>
+      </c>
+      <c r="E37">
+        <v>1.882E-2</v>
+      </c>
+      <c r="F37">
+        <v>1.8849999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B38">
+        <v>9.3869999999999995E-2</v>
+      </c>
+      <c r="C38">
+        <v>3.175E-2</v>
+      </c>
+      <c r="D38">
+        <v>2.7029999999999998E-2</v>
+      </c>
+      <c r="E38">
+        <v>2.5139999999999999E-2</v>
+      </c>
+      <c r="F38">
+        <v>2.5850000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B39">
+        <v>6.0198600000000004</v>
+      </c>
+      <c r="C39">
+        <v>1.6216200000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.80115000000000003</v>
+      </c>
+      <c r="E39">
+        <v>0.71187</v>
+      </c>
+      <c r="F39">
+        <v>0.70870999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1245,9 +1245,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$35:$E$35</c:f>
+              <c:f>Sheet1!$B$35:$F$35</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>BlkSize2</c:v>
                 </c:pt>
@@ -1259,16 +1259,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>BlkSize16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BlkSize32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$36:$E$36</c:f>
+              <c:f>Sheet1!$B$36:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.8360000000000001E-2</c:v>
                 </c:pt>
@@ -1280,6 +1283,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.8190000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9220000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,9 +1317,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$35:$E$35</c:f>
+              <c:f>Sheet1!$B$35:$F$35</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>BlkSize2</c:v>
                 </c:pt>
@@ -1325,16 +1331,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>BlkSize16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BlkSize32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$E$37</c:f>
+              <c:f>Sheet1!$B$37:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.7240000000000002E-2</c:v>
                 </c:pt>
@@ -1346,6 +1355,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.882E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8849999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1377,9 +1389,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$35:$E$35</c:f>
+              <c:f>Sheet1!$B$35:$F$35</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>BlkSize2</c:v>
                 </c:pt>
@@ -1391,16 +1403,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>BlkSize16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BlkSize32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$38:$E$38</c:f>
+              <c:f>Sheet1!$B$38:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9.3869999999999995E-2</c:v>
                 </c:pt>
@@ -1412,6 +1427,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5139999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5850000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,9 +1461,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$35:$E$35</c:f>
+              <c:f>Sheet1!$B$35:$F$35</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>BlkSize2</c:v>
                 </c:pt>
@@ -1457,16 +1475,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>BlkSize16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BlkSize32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$39:$E$39</c:f>
+              <c:f>Sheet1!$B$39:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.0198600000000004</c:v>
                 </c:pt>
@@ -1478,6 +1499,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.71187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70870999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3419,15 +3443,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3714,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
